--- a/Analise_Vendas/vendas.xlsx
+++ b/Analise_Vendas/vendas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lqr5-my.sharepoint.com/personal/larissa_lqr5_onmicrosoft_com/Documents/01. Portfolio/Excel/Projetos_Excel/Analise_Vendas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2582" documentId="8_{3E179B5D-1B68-4549-94DD-992CBBC47882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C08072E-F750-4115-A8A6-9F7A26362E0C}"/>
+  <xr:revisionPtr revIDLastSave="2594" documentId="8_{3E179B5D-1B68-4549-94DD-992CBBC47882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F10FAAAB-8B73-4BCA-89E2-AD3360E62F36}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="620" activeTab="2" xr2:uid="{64DBDF20-F50F-4CE3-8032-39ED5081210D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="620" activeTab="3" xr2:uid="{64DBDF20-F50F-4CE3-8032-39ED5081210D}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -407,7 +407,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -479,6 +479,13 @@
     <xf numFmtId="1" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,83 +494,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1411">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="171">
     <dxf>
       <font>
         <sz val="10"/>
@@ -803,10 +740,20 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <sz val="10"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <fill>
@@ -821,6 +768,30 @@
           <bgColor theme="8"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -895,6922 +866,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -8006,6 +1061,362 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8180,7 +1591,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="3" xr9:uid="{D585789C-B3FD-4BC4-8918-A74038B306EC}">
-      <tableStyleElement type="wholeTable" dxfId="1410"/>
+      <tableStyleElement type="wholeTable" dxfId="170"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -8685,7 +2096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tijuca</c:v>
+                  <c:v>Barra</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8872,19 +2283,19 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28742.399999999994</c:v>
+                  <c:v>27544.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21139.3</c:v>
+                  <c:v>24069.500000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6473.6000000000022</c:v>
+                  <c:v>7889.7000000000016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6190.1000000000013</c:v>
+                  <c:v>8030.4000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4776.0000000000009</c:v>
+                  <c:v>5850.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9118,40 +2529,40 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6459.3000000000011</c:v>
+                  <c:v>4233.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4314.5000000000009</c:v>
+                  <c:v>6621.8000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5358.6000000000013</c:v>
+                  <c:v>5730.4000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3945.3</c:v>
+                  <c:v>2849.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8607.8000000000011</c:v>
+                  <c:v>5769.0999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8800</c:v>
+                  <c:v>4386.4000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3319.2000000000003</c:v>
+                  <c:v>11689.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8721.2999999999993</c:v>
+                  <c:v>7020.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3704.1000000000004</c:v>
+                  <c:v>2066.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4298.8000000000011</c:v>
+                  <c:v>5899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6880.5</c:v>
+                  <c:v>7926.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2912</c:v>
+                  <c:v>9191.7000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14213,8 +7624,8 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="14" name="Unidade">
@@ -14237,7 +7648,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -14438,8 +7849,8 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="6" name="Produto">
@@ -14462,7 +7873,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -14554,7 +7965,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:t>157</a:t>
+              <a:t>158</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -14620,7 +8031,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:t>20,7%</a:t>
+              <a:t>20,8%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -15106,7 +8517,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>Tijuca</a:t>
+            <a:t>Barra</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="1">
             <a:solidFill>
@@ -15275,7 +8686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:t>Tijuca</a:t>
+              <a:t>Barra</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
@@ -15340,7 +8751,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>14,6%</a:t>
+              <a:t>15,9%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="4400" b="0">
               <a:solidFill>
@@ -28342,136 +21753,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDC155F1-3274-4022-BFBD-1DC227988941}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A61:D67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Quantidade" fld="4" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Count of Produto" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Valor_Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="9">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CDFEB5F-383C-46E3-9145-75043F62BB11}" name="grafico_barras" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A13:B19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
@@ -28831,9 +22112,9 @@
     <pivotField axis="axisCol" showAll="0">
       <items count="6">
         <item h="1" x="3"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item h="1" x="4"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="1"/>
         <item t="default"/>
       </items>
@@ -29259,65 +22540,65 @@
   </colFields>
   <colItems count="1">
     <i>
-      <x v="3"/>
+      <x v="1"/>
     </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Valor Total" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="1395">
+    <format dxfId="99">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1394">
+    <format dxfId="98">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1393">
+    <format dxfId="97">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1392">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1391">
+    <format dxfId="95">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1390">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1389">
+    <format dxfId="93">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1388">
+    <format dxfId="92">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1387">
+    <format dxfId="91">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1386">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1385">
+    <format dxfId="89">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1384">
+    <format dxfId="88">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1383">
+    <format dxfId="87">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1382">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -29396,7 +22677,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C902DAF-3BCA-423E-8B4C-A60779707CD1}" name="grafico_colunas" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -30195,22 +23476,22 @@
     <dataField name="Sum of Valor Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="1401">
+    <format dxfId="105">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1400">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1399">
+    <format dxfId="103">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1398">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1397">
+    <format dxfId="101">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1396">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -30261,17 +23542,17 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{194FEF32-E271-43A5-BE7D-77373B51E696}" name="grafico_area" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A35:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
       <items count="6">
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -31061,28 +24342,28 @@
     <dataField name="Sum of Valor Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="252">
+    <format dxfId="0">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="253">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="254">
+    <format dxfId="2">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="255">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="256">
+    <format dxfId="4">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="257">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="258">
+    <format dxfId="6">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="259">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -31098,8 +24379,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56B421A6-DADC-4E84-AD8F-29E7C0981FD5}" name="grafico_vendas" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56B421A6-DADC-4E84-AD8F-29E7C0981FD5}" name="grafico_vendas" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A51:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
@@ -31166,29 +24447,29 @@
     <dataField name="Count of Unidade" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="1154">
+    <format dxfId="137">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1155">
+    <format dxfId="136">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1156">
+    <format dxfId="135">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1157">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1158">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1159">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1160">
+    <format dxfId="131">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -31197,7 +24478,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1161">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -31206,7 +24487,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1162">
+    <format dxfId="129">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -31215,7 +24496,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1163">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -31224,7 +24505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1164">
+    <format dxfId="127">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -31233,7 +24514,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1165">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -31242,45 +24523,45 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1166">
+    <format dxfId="125">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1167">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1168">
+    <format dxfId="123">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1169">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1170">
+    <format dxfId="121">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1171">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1172">
+    <format dxfId="119">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1173">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1174">
+    <format dxfId="117">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1175">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1176">
+    <format dxfId="115">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -31292,7 +24573,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1177">
+    <format dxfId="114">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -31328,17 +24609,17 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BA81EE1-72D1-406F-910D-7BFCE43CB53B}" name="grafico_rosca" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A24:B30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
       <items count="6">
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -31743,65 +25024,65 @@
   </colFields>
   <colItems count="1">
     <i>
-      <x v="4"/>
+      <x/>
     </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Valor Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="260">
+    <format dxfId="8">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="261">
+    <format dxfId="9">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="262">
+    <format dxfId="10">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="263">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="264">
+    <format dxfId="12">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="265">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="266">
+    <format dxfId="14">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="267">
+    <format dxfId="15">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="268">
+    <format dxfId="16">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="269">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="270">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="271">
+    <format dxfId="19">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="272">
+    <format dxfId="20">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="273">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -31928,6 +25209,136 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDC155F1-3274-4022-BFBD-1DC227988941}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A61:D67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Quantidade" fld="4" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Count of Produto" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Valor_Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="161">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="160">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="159">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="158">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="157">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="156">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="155">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="154">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="153">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="152">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Produto" xr10:uid="{34349ACA-3BB9-4210-AB11-F4B2533D880B}" sourceName="Produto">
   <pivotTables>
@@ -31937,9 +25348,9 @@
     <tabular pivotCacheId="2075363">
       <items count="5">
         <i x="3"/>
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="4"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
         <i x="1"/>
       </items>
     </tabular>
@@ -31956,11 +25367,11 @@
   <data>
     <tabular pivotCacheId="2075363">
       <items count="5">
-        <i x="3"/>
+        <i x="3" s="1"/>
         <i x="4"/>
         <i x="0"/>
         <i x="1"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -31975,15 +25386,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D68F0A18-200F-4082-A7E9-B7F2E3904BD1}" name="vendas" displayName="vendas" ref="A1:F760" totalsRowShown="0" headerRowDxfId="1409" dataDxfId="1408">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D68F0A18-200F-4082-A7E9-B7F2E3904BD1}" name="vendas" displayName="vendas" ref="A1:F760" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
   <autoFilter ref="A1:F760" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7D832248-CCFE-4C96-BD20-CEC5F40BDCC1}" name="Loja" dataDxfId="1407"/>
-    <tableColumn id="2" xr3:uid="{4BF5465E-6AC4-4D63-88DB-8F10448C2847}" name="Data" dataDxfId="1406"/>
-    <tableColumn id="3" xr3:uid="{A272E971-8B9A-4D0D-A0A0-6116C48B8FDB}" name="Produto" dataDxfId="1405"/>
-    <tableColumn id="4" xr3:uid="{CDBBEEF6-BA47-4EFC-B421-CE3FA7D141ED}" name="Valor_Unitario" dataDxfId="1404"/>
-    <tableColumn id="5" xr3:uid="{B300504D-BF9D-4D40-8ADF-FF24276BFC34}" name="Quantidade" dataDxfId="1403"/>
-    <tableColumn id="6" xr3:uid="{B4C9B7A2-2FD0-4287-97CC-741BDE32C5F5}" name="Valor_Total" dataDxfId="1402">
+    <tableColumn id="1" xr3:uid="{7D832248-CCFE-4C96-BD20-CEC5F40BDCC1}" name="Loja" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{4BF5465E-6AC4-4D63-88DB-8F10448C2847}" name="Data" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{A272E971-8B9A-4D0D-A0A0-6116C48B8FDB}" name="Produto" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{CDBBEEF6-BA47-4EFC-B421-CE3FA7D141ED}" name="Valor_Unitario" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{B300504D-BF9D-4D40-8ADF-FF24276BFC34}" name="Quantidade" dataDxfId="163"/>
+    <tableColumn id="6" xr3:uid="{B4C9B7A2-2FD0-4287-97CC-741BDE32C5F5}" name="Valor_Total" dataDxfId="162">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -32324,10 +25735,10 @@
       <c r="F1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -48568,7 +41979,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48597,11 +42008,11 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="str">
         <f>tabelas_dinamicas!B25</f>
-        <v>Tijuca</v>
+        <v>Barra</v>
       </c>
       <c r="B4" s="7">
         <f>SUM(tabelas_dinamicas!B26:B30)</f>
-        <v>67321.400000000009</v>
+        <v>73385.000000000015</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -48610,7 +42021,7 @@
       </c>
       <c r="B5" s="8">
         <f>B4/B3</f>
-        <v>0.145798325606457</v>
+        <v>0.15893029741850062</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -48625,11 +42036,11 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="str">
         <f>tabelas_dinamicas!B14</f>
-        <v>Camiseta Navy</v>
+        <v>Camisa Oxford</v>
       </c>
       <c r="B7" s="9">
         <f>SUM(tabelas_dinamicas!B15:B19)</f>
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -48638,7 +42049,7 @@
       </c>
       <c r="B8" s="10">
         <f>B7/B6</f>
-        <v>0.20685111989459815</v>
+        <v>0.20816864295125165</v>
       </c>
     </row>
   </sheetData>
@@ -48650,14 +42061,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EDFC9C-7DFC-4549-B7B6-34A32793863A}">
   <dimension ref="A2:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -48669,10 +42080,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -48728,10 +42139,10 @@
       <c r="C8" s="26"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
@@ -48746,54 +42157,54 @@
         <v>17</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>22</v>
+      <c r="B15" s="43">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>40</v>
+      <c r="B16" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
-        <v>28</v>
+      <c r="B17" s="43">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
-        <v>48</v>
+      <c r="B18" s="43">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19">
-        <v>19</v>
+      <c r="B19" s="43">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="42"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -48808,7 +42219,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -48816,7 +42227,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="5">
-        <v>28742.399999999994</v>
+        <v>27544.799999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -48824,7 +42235,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="5">
-        <v>21139.3</v>
+        <v>24069.500000000004</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -48832,7 +42243,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="5">
-        <v>6473.6000000000022</v>
+        <v>7889.7000000000016</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -48840,7 +42251,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5">
-        <v>6190.1000000000013</v>
+        <v>8030.4000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -48848,15 +42259,15 @@
         <v>7</v>
       </c>
       <c r="B30" s="5">
-        <v>4776.0000000000009</v>
+        <v>5850.6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
@@ -48874,7 +42285,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="5">
-        <v>6459.3000000000011</v>
+        <v>4233.8</v>
       </c>
       <c r="C36" s="6">
         <v>7000</v>
@@ -48885,7 +42296,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="5">
-        <v>4314.5000000000009</v>
+        <v>6621.8000000000011</v>
       </c>
       <c r="C37" s="6">
         <v>7000</v>
@@ -48896,7 +42307,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="5">
-        <v>5358.6000000000013</v>
+        <v>5730.4000000000005</v>
       </c>
       <c r="C38" s="6">
         <v>7000</v>
@@ -48907,7 +42318,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="5">
-        <v>3945.3</v>
+        <v>2849.4</v>
       </c>
       <c r="C39" s="6">
         <v>7000</v>
@@ -48918,7 +42329,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="5">
-        <v>8607.8000000000011</v>
+        <v>5769.0999999999995</v>
       </c>
       <c r="C40" s="6">
         <v>7000</v>
@@ -48929,7 +42340,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="5">
-        <v>8800</v>
+        <v>4386.4000000000005</v>
       </c>
       <c r="C41" s="6">
         <v>7000</v>
@@ -48940,7 +42351,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="5">
-        <v>3319.2000000000003</v>
+        <v>11689.6</v>
       </c>
       <c r="C42" s="6">
         <v>7000</v>
@@ -48951,7 +42362,7 @@
         <v>29</v>
       </c>
       <c r="B43" s="5">
-        <v>8721.2999999999993</v>
+        <v>7020.4</v>
       </c>
       <c r="C43" s="6">
         <v>7000</v>
@@ -48962,7 +42373,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="5">
-        <v>3704.1000000000004</v>
+        <v>2066.9</v>
       </c>
       <c r="C44" s="6">
         <v>7000</v>
@@ -48973,7 +42384,7 @@
         <v>31</v>
       </c>
       <c r="B45" s="5">
-        <v>4298.8000000000011</v>
+        <v>5899</v>
       </c>
       <c r="C45" s="6">
         <v>7000</v>
@@ -48984,7 +42395,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="5">
-        <v>6880.5</v>
+        <v>7926.5</v>
       </c>
       <c r="C46" s="6">
         <v>7000</v>
@@ -48995,17 +42406,17 @@
         <v>33</v>
       </c>
       <c r="B47" s="5">
-        <v>2912</v>
+        <v>9191.7000000000007</v>
       </c>
       <c r="C47" s="6">
         <v>7000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="37"/>
+      <c r="B50" s="42"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
@@ -49064,16 +42475,16 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="38" t="s">
         <v>48</v>
       </c>
     </row>
@@ -49081,10 +42492,10 @@
       <c r="A62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="39">
+      <c r="B62" s="35">
         <v>446</v>
       </c>
-      <c r="C62" s="38">
+      <c r="C62">
         <v>144</v>
       </c>
       <c r="D62" s="5">
@@ -49095,10 +42506,10 @@
       <c r="A63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="39">
+      <c r="B63" s="35">
         <v>480</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63">
         <v>158</v>
       </c>
       <c r="D63" s="5">
@@ -49109,10 +42520,10 @@
       <c r="A64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="39">
+      <c r="B64" s="35">
         <v>480</v>
       </c>
-      <c r="C64" s="38">
+      <c r="C64">
         <v>151</v>
       </c>
       <c r="D64" s="5">
@@ -49123,10 +42534,10 @@
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="39">
+      <c r="B65" s="35">
         <v>479</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65">
         <v>157</v>
       </c>
       <c r="D65" s="5">
@@ -49137,10 +42548,10 @@
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="39">
+      <c r="B66" s="35">
         <v>423</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66">
         <v>149</v>
       </c>
       <c r="D66" s="5">
@@ -49148,16 +42559,16 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="41">
+      <c r="B67" s="37">
         <v>2308</v>
       </c>
-      <c r="C67" s="42">
+      <c r="C67" s="38">
         <v>759</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="39">
         <v>461743.30000000005</v>
       </c>
     </row>
@@ -49180,7 +42591,7 @@
   </sheetPr>
   <dimension ref="A1:XFC35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/Analise_Vendas/vendas.xlsx
+++ b/Analise_Vendas/vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lqr5-my.sharepoint.com/personal/larissa_lqr5_onmicrosoft_com/Documents/01. Portfolio/Excel/Projetos_Excel/Analise_Vendas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2594" documentId="8_{3E179B5D-1B68-4549-94DD-992CBBC47882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F10FAAAB-8B73-4BCA-89E2-AD3360E62F36}"/>
+  <xr:revisionPtr revIDLastSave="2597" documentId="8_{3E179B5D-1B68-4549-94DD-992CBBC47882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0463FA20-992E-4802-AD39-AB0C2D991631}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="620" activeTab="3" xr2:uid="{64DBDF20-F50F-4CE3-8032-39ED5081210D}"/>
   </bookViews>
@@ -407,7 +407,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -493,538 +493,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="171">
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
+  <dxfs count="85">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1417,6 +892,80 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1591,7 +1140,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="3" xr9:uid="{D585789C-B3FD-4BC4-8918-A74038B306EC}">
-      <tableStyleElement type="wholeTable" dxfId="170"/>
+      <tableStyleElement type="wholeTable" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6227,13 +5776,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>359832</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>232833</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6248,7 +5797,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5291665" y="4328583"/>
+          <a:off x="5291665" y="4360333"/>
           <a:ext cx="5196418" cy="2794000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7750,15 +7299,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>116416</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>206838</xdr:colOff>
+      <xdr:colOff>196254</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>45355</xdr:rowOff>
+      <xdr:rowOff>87689</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7773,7 +7322,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="127000" y="4328583"/>
+          <a:off x="116416" y="4370917"/>
           <a:ext cx="2683338" cy="2786439"/>
           <a:chOff x="43542" y="4184435"/>
           <a:chExt cx="2385751" cy="2347999"/>
@@ -7849,8 +7398,8 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-        <mc:Choice Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="6" name="Produto">
@@ -7873,7 +7422,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback xmlns="">
+        <mc:Fallback>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -7883,7 +7432,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="141613" y="5105392"/>
+                <a:off x="131029" y="5147726"/>
                 <a:ext cx="1455354" cy="1621438"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8184,13 +7733,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>286742</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>21165</xdr:rowOff>
+      <xdr:rowOff>52915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>276501</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>45354</xdr:rowOff>
+      <xdr:rowOff>77104</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8205,9 +7754,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2890242" y="4339165"/>
+          <a:off x="2890242" y="4370915"/>
           <a:ext cx="2318092" cy="2775856"/>
-          <a:chOff x="2652661" y="4204086"/>
+          <a:chOff x="2652661" y="4230974"/>
           <a:chExt cx="2376129" cy="2350753"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -8224,7 +7773,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2652661" y="4204086"/>
+            <a:off x="2652661" y="4230974"/>
             <a:ext cx="2376129" cy="2350753"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -21753,931 +21302,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CDFEB5F-383C-46E3-9145-75043F62BB11}" name="grafico_barras" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A13:B19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="339">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item h="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item sd="0" x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="1">
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Valor Total" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="14">
-    <format dxfId="99">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="98">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="97">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="96">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="95">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="94">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="93">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="92">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="91">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="90">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="89">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="88">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="87">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="86">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C902DAF-3BCA-423E-8B4C-A60779707CD1}" name="grafico_colunas" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -23476,22 +22100,22 @@
     <dataField name="Sum of Valor Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="105">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="3">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="1">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -23542,7 +22166,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{194FEF32-E271-43A5-BE7D-77373B51E696}" name="grafico_area" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A35:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -24342,28 +22966,28 @@
     <dataField name="Sum of Valor Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="0">
+    <format dxfId="13">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="11">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="9">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="7">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -24379,7 +23003,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56B421A6-DADC-4E84-AD8F-29E7C0981FD5}" name="grafico_vendas" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A51:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -24447,29 +23071,29 @@
     <dataField name="Count of Unidade" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="137">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="35">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="133">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -24478,7 +23102,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -24487,7 +23111,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="129">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -24496,7 +23120,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="128">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -24505,7 +23129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -24514,7 +23138,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -24523,45 +23147,45 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="125">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="23">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="21">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="19">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="17">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="15">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -24573,7 +23197,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="14">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -24609,7 +23233,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BA81EE1-72D1-406F-910D-7BFCE43CB53B}" name="grafico_rosca" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A24:B30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
@@ -25031,58 +23655,58 @@
     <dataField name="Sum of Valor Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="8">
+    <format dxfId="51">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="50">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="49">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="47">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="45">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="44">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="43">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="41">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="40">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="39">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -25209,7 +23833,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDC155F1-3274-4022-BFBD-1DC227988941}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A61:D67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -25272,10 +23896,10 @@
     <dataField name="Sum of Valor_Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="161">
+    <format dxfId="61">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="160">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -25286,10 +23910,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="159">
+    <format dxfId="59">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -25300,22 +23924,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="57">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="55">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="154">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="53">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -25327,6 +23951,931 @@
       </pivotArea>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CDFEB5F-383C-46E3-9145-75043F62BB11}" name="grafico_barras" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A13:B19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="339">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item h="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="1">
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Valor Total" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="14">
+    <format dxfId="75">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -25386,15 +24935,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D68F0A18-200F-4082-A7E9-B7F2E3904BD1}" name="vendas" displayName="vendas" ref="A1:F760" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D68F0A18-200F-4082-A7E9-B7F2E3904BD1}" name="vendas" displayName="vendas" ref="A1:F760" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:F760" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7D832248-CCFE-4C96-BD20-CEC5F40BDCC1}" name="Loja" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{4BF5465E-6AC4-4D63-88DB-8F10448C2847}" name="Data" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{A272E971-8B9A-4D0D-A0A0-6116C48B8FDB}" name="Produto" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{CDBBEEF6-BA47-4EFC-B421-CE3FA7D141ED}" name="Valor_Unitario" dataDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{B300504D-BF9D-4D40-8ADF-FF24276BFC34}" name="Quantidade" dataDxfId="163"/>
-    <tableColumn id="6" xr3:uid="{B4C9B7A2-2FD0-4287-97CC-741BDE32C5F5}" name="Valor_Total" dataDxfId="162">
+    <tableColumn id="1" xr3:uid="{7D832248-CCFE-4C96-BD20-CEC5F40BDCC1}" name="Loja" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{4BF5465E-6AC4-4D63-88DB-8F10448C2847}" name="Data" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{A272E971-8B9A-4D0D-A0A0-6116C48B8FDB}" name="Produto" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{CDBBEEF6-BA47-4EFC-B421-CE3FA7D141ED}" name="Valor_Unitario" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{B300504D-BF9D-4D40-8ADF-FF24276BFC34}" name="Quantidade" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{B4C9B7A2-2FD0-4287-97CC-741BDE32C5F5}" name="Valor_Total" dataDxfId="76">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -42164,7 +41713,7 @@
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15">
         <v>36</v>
       </c>
     </row>
@@ -42172,7 +41721,7 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16">
         <v>30</v>
       </c>
     </row>
@@ -42180,7 +41729,7 @@
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17">
         <v>34</v>
       </c>
     </row>
@@ -42188,7 +41737,7 @@
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18">
         <v>26</v>
       </c>
     </row>
@@ -42196,7 +41745,7 @@
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19">
         <v>32</v>
       </c>
     </row>
@@ -42591,8 +42140,8 @@
   </sheetPr>
   <dimension ref="A1:XFC35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
